--- a/homework3/Portmone_Yana_Horbunova.xlsx
+++ b/homework3/Portmone_Yana_Horbunova.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\рабочая\портмоне\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\homework\homework3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DD697F-1CE2-43A3-AD0E-E70CADAAE490}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB1ECAC-CD88-43A0-82AA-A2441336C97E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8856" xr2:uid="{F9A23695-349A-4784-8DA7-F15A19645AD4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8856" activeTab="1" xr2:uid="{F9A23695-349A-4784-8DA7-F15A19645AD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="228">
   <si>
     <t>Traceability matrix</t>
   </si>
@@ -59,42 +60,12 @@
     <t>1.6</t>
   </si>
   <si>
-    <t>взять карту банка попробовать первести больше 1 гривны на карту такого же банка</t>
-  </si>
-  <si>
-    <t>взять карту банка попробовать первести больше 1 гривны на карту другого банка Украины</t>
-  </si>
-  <si>
-    <t>взять карту банка попробовать перевести 1 гривну  на карту любого зарубежного банка</t>
-  </si>
-  <si>
-    <t>взять карту банка попробовать первести больше 1 гривны на карту любого зарубежного банка</t>
-  </si>
-  <si>
-    <t>взять карту банка попробовать перевести 1 гривну на карту такого же банка</t>
-  </si>
-  <si>
-    <t>взять карту банка попробовать перевести 1 гривну на карту другого банка Украины</t>
-  </si>
-  <si>
     <t>2.Оплатить услуги мобильной связи всех операторов</t>
   </si>
   <si>
     <t>2.1</t>
   </si>
   <si>
-    <t>попробовать оплатить мобильную связь оператора МТС</t>
-  </si>
-  <si>
-    <t>попробовать оплатить мобильную связь оператора Киевстар</t>
-  </si>
-  <si>
-    <t>попробовать оплатить мобильную связь оператора Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">попробовать оплатить мобильную связь зарубежного оператора </t>
-  </si>
-  <si>
     <t>2.2</t>
   </si>
   <si>
@@ -119,99 +90,45 @@
     <t>3.3</t>
   </si>
   <si>
-    <t xml:space="preserve">попробовать оплатить услугу горячего водоснабжение определенного населенного пункта </t>
-  </si>
-  <si>
-    <t xml:space="preserve">попробовать оплатить услугу холодного водоснабжение определенного населенного пункта </t>
-  </si>
-  <si>
-    <t>попробовать оплатить услугу холодного водоснабжения столицы Украины</t>
-  </si>
-  <si>
     <t>3.4</t>
   </si>
   <si>
-    <t>попробовать оплатить услугу горячего водоснабжение столицы Украины</t>
-  </si>
-  <si>
     <t>3.5</t>
   </si>
   <si>
-    <t>если попробовать ввезти реквизиты холодного водоснабжения в графе горячего ,пропустит ли система платеж?</t>
-  </si>
-  <si>
     <t>3.6</t>
   </si>
   <si>
     <t>3.7</t>
   </si>
   <si>
-    <t>попробовать оплатить электроснабжение глухого села</t>
-  </si>
-  <si>
-    <t xml:space="preserve">попробовать оплатить электроснабжение </t>
-  </si>
-  <si>
     <t>3.8</t>
   </si>
   <si>
     <t>3.9</t>
   </si>
   <si>
-    <t xml:space="preserve">попробовать оплатить газоснабжение </t>
-  </si>
-  <si>
     <t>3.10</t>
   </si>
   <si>
-    <t xml:space="preserve">попробовать оплатить отопление </t>
-  </si>
-  <si>
     <t>3.11</t>
   </si>
   <si>
-    <t>поробовать оплатить вывоз бытовых отходов</t>
-  </si>
-  <si>
-    <t>попробовать оплатить водоотведение любого населенного пункта Украины</t>
-  </si>
-  <si>
     <t>3.12</t>
   </si>
   <si>
-    <t>можно ли оплатить сразу все услуги комунальных предприятий по определенному адресу?</t>
-  </si>
-  <si>
     <t>4.Оплатить услуги стационарной телефонной связи</t>
   </si>
   <si>
     <t>4.1</t>
   </si>
   <si>
-    <t xml:space="preserve">попробовать оплатить стационарную телефонную связь </t>
-  </si>
-  <si>
     <t>5.Оплатить услуги интернет – провайдеров онлайн</t>
   </si>
   <si>
     <t>5.1</t>
   </si>
   <si>
-    <t>попробовать оплатить провайдера Ланет</t>
-  </si>
-  <si>
-    <t>попробовать оплатить провайдера Воля</t>
-  </si>
-  <si>
-    <t>попробовать оплатить провайдера Вега</t>
-  </si>
-  <si>
-    <t>попробовать оплатить провайдера Триолан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">попробовать оплатить малоизвестного провайдера </t>
-  </si>
-  <si>
     <t>5.2</t>
   </si>
   <si>
@@ -230,33 +147,15 @@
     <t>6.1</t>
   </si>
   <si>
-    <t>попробовать оплатить телевизионного оператора Воля</t>
-  </si>
-  <si>
     <t>6.2</t>
   </si>
   <si>
-    <t>попробовать оплатить любого телевизионного оператора</t>
-  </si>
-  <si>
     <t>7.Оплатить страховку ОСАГО</t>
   </si>
   <si>
     <t>7.1</t>
   </si>
   <si>
-    <t>попробовать оплатить ОСАГО страховой ПЗУ</t>
-  </si>
-  <si>
-    <t>попробовать оплатить ОСАГО незарегистрированого автомобиля</t>
-  </si>
-  <si>
-    <t>попробовать оплатить ОСАГО нерастаможеного автомобиля</t>
-  </si>
-  <si>
-    <t>попробовать оплатить ОСАГО любой страховой компании</t>
-  </si>
-  <si>
     <t>7.2</t>
   </si>
   <si>
@@ -272,72 +171,42 @@
     <t>8.1</t>
   </si>
   <si>
-    <t>попробовать оплатить зеленую карту для выезда в Европу</t>
-  </si>
-  <si>
     <t>8.2</t>
   </si>
   <si>
-    <t>попробовать оплатить зеленую карту для выезда в Россию, Молдову, Беларусь, Азербайджан</t>
-  </si>
-  <si>
     <t>9.Оплата парковки</t>
   </si>
   <si>
     <t>9.1</t>
   </si>
   <si>
-    <t>попробовать оплатить любую парковку города Киева</t>
-  </si>
-  <si>
     <t>9.2</t>
   </si>
   <si>
-    <t>попробовать оплатить парковку находящуюся не в Украине</t>
-  </si>
-  <si>
     <t>9.3</t>
   </si>
   <si>
-    <t>попробовать оплатить парковку любой парковки Украины</t>
-  </si>
-  <si>
     <t>10.Оплата Kyiv Smart Card - билет для проезда в общественном транспорте в Киеве</t>
   </si>
   <si>
     <t>10.1</t>
   </si>
   <si>
-    <t>попробовать оплатить Kyiv Smart Card - билет для проезда в общественном транспорте в Киеве</t>
-  </si>
-  <si>
     <t>10.2</t>
   </si>
   <si>
-    <t>попробовать пополнить Kyiv Smart Card - билет для проезда в общественном транспорте в Киеве</t>
-  </si>
-  <si>
     <t>11.Оплатить штрафы ГАИ;</t>
   </si>
   <si>
     <t>11.1</t>
   </si>
   <si>
-    <t>попробовать оплатить штраф за превышение скорости в городе Одессе</t>
-  </si>
-  <si>
     <t>11.2</t>
   </si>
   <si>
-    <t>попробовать оплатить любой штраф ГАИ Украины</t>
-  </si>
-  <si>
     <t>11.3</t>
   </si>
   <si>
-    <t>попробовать оплатить  штраф за нарушение не в Украине</t>
-  </si>
-  <si>
     <t>12.Купить авиабилеты онлайн;</t>
   </si>
   <si>
@@ -347,12 +216,6 @@
     <t>12.2</t>
   </si>
   <si>
-    <t>попробовать купить билеты на самолет в другой стране онлайн</t>
-  </si>
-  <si>
-    <t>попробовать купить билеты на самолет с Украины онлайн</t>
-  </si>
-  <si>
     <t>13.Купить ЖД билеты онлайн;</t>
   </si>
   <si>
@@ -362,12 +225,6 @@
     <t>13.2</t>
   </si>
   <si>
-    <t xml:space="preserve">попробовать купить билет ЖД в любой город за пределами Украины онлайн </t>
-  </si>
-  <si>
-    <t>попробовать купить билеты ЖД в любой город Украины онлайн</t>
-  </si>
-  <si>
     <t>14.Купить автобусные билеты онлайн</t>
   </si>
   <si>
@@ -377,45 +234,24 @@
     <t>14.2</t>
   </si>
   <si>
-    <t>попробовать купить онлайн билет в Стозополь(Болгария) на автобус</t>
-  </si>
-  <si>
-    <t>попробовать купить онлайн билет в село Львовской области</t>
-  </si>
-  <si>
     <t>14.3</t>
   </si>
   <si>
-    <t>попробовать купить онлайн билет в любой город Украины</t>
-  </si>
-  <si>
     <t>15.Оплата игр и развлечений</t>
   </si>
   <si>
     <t>15.1</t>
   </si>
   <si>
-    <t>попробовать оплатить игру TownShip</t>
-  </si>
-  <si>
     <t>15.2</t>
   </si>
   <si>
-    <t>попробовать оплатить билеты в кино</t>
-  </si>
-  <si>
     <t>15.3</t>
   </si>
   <si>
-    <t>попробовать оплатить билеты в театр</t>
-  </si>
-  <si>
     <t>15.4</t>
   </si>
   <si>
-    <t>попробовать оплатить любую игру онлайн</t>
-  </si>
-  <si>
     <t>16.Оплата налогов</t>
   </si>
   <si>
@@ -428,120 +264,69 @@
     <t>17.1</t>
   </si>
   <si>
-    <t>попробовать оплатить налог любой налог Украины</t>
-  </si>
-  <si>
-    <t>попробовать оплатить кредит любого банка Украины</t>
-  </si>
-  <si>
     <t>17.2</t>
   </si>
   <si>
-    <t xml:space="preserve">попробовать оплатить кредит зарбежного банка </t>
-  </si>
-  <si>
     <t>18.Оплата охраны</t>
   </si>
   <si>
     <t>18.1</t>
   </si>
   <si>
-    <t>попробовать оплатить охрану дома</t>
-  </si>
-  <si>
     <t>18.2</t>
   </si>
   <si>
-    <t>попробовать оплатить охрану школы</t>
-  </si>
-  <si>
     <t>18.3</t>
   </si>
   <si>
-    <t>попробовать оплатить любую охранную фирму</t>
-  </si>
-  <si>
     <t>19.Оплатить туристические туры</t>
   </si>
   <si>
     <t>19.1</t>
   </si>
   <si>
-    <t>попробовать оплатить туристический тур в Европу</t>
-  </si>
-  <si>
     <t>19.2</t>
   </si>
   <si>
-    <t>попробовать оплатить туристический тур в Азию</t>
-  </si>
-  <si>
     <t>19.3</t>
   </si>
   <si>
-    <t>попробовать оплатить туристический тур в Америку</t>
-  </si>
-  <si>
     <t>20.Оплатить счета за образование</t>
   </si>
   <si>
     <t>20.1</t>
   </si>
   <si>
-    <t>попробовать оплатить счет за образование любого вуза Украины</t>
-  </si>
-  <si>
     <t>20.2</t>
   </si>
   <si>
-    <t xml:space="preserve">попробовать оплатить счет за образование зарубежного вуза </t>
-  </si>
-  <si>
     <t>21.Оплатить бизнес-услуги</t>
   </si>
   <si>
     <t xml:space="preserve">21.1 </t>
   </si>
   <si>
-    <t>попробовать оплатить службу переездов</t>
-  </si>
-  <si>
     <t>21.2</t>
   </si>
   <si>
-    <t>попробовать оплатить ремонт квадриры</t>
-  </si>
-  <si>
     <t>21.3</t>
   </si>
   <si>
-    <t>попробовать оплатить разные бизнес-услуги</t>
-  </si>
-  <si>
     <t>22.Автоматическая оплата счетов</t>
   </si>
   <si>
     <t>22.1</t>
   </si>
   <si>
-    <t>попробовать оплатить все счета автоматически</t>
-  </si>
-  <si>
     <t>22.2</t>
   </si>
   <si>
-    <t xml:space="preserve">посмотреть возмжна ли оплата счетов автоматически через месяц </t>
-  </si>
-  <si>
     <t>23.Получение квитанций об оплате</t>
   </si>
   <si>
     <t>23.1</t>
   </si>
   <si>
-    <t>после платы есть возможность получить квитанцию?</t>
-  </si>
-  <si>
     <t>23.2</t>
   </si>
   <si>
@@ -551,9 +336,6 @@
     <t>23.3</t>
   </si>
   <si>
-    <t>проверить возможно ли распечатать квитанцию об оплате</t>
-  </si>
-  <si>
     <t>24.Личный кабинет пользователя</t>
   </si>
   <si>
@@ -579,6 +361,361 @@
   </si>
   <si>
     <t>проверить преимущества личного кабинета</t>
+  </si>
+  <si>
+    <t>взять карту банка проверить возможность  перевода 1 гривны на карту такого же банка</t>
+  </si>
+  <si>
+    <t>взять карту банка проверить перевод 1 гривны на карту другого банка Украины (например Приватбанк)</t>
+  </si>
+  <si>
+    <t>взять карту банка проверить перевод 1 гривны  на карту любого зарубежного банка  (например Swedbank)</t>
+  </si>
+  <si>
+    <t>взять карту банка проверить перевод больше 1 гривны(например 10грн) на карту такого же банка</t>
+  </si>
+  <si>
+    <t>взять карту банка проверить первод больше 1 гривны(например 20грн) на карту другого банка Украины (например Ощадбанк)</t>
+  </si>
+  <si>
+    <t>взять карту банка проверить первод больше 1 гривны (например 25грн)на карту любого зарубежного банка (например KDB Bank)</t>
+  </si>
+  <si>
+    <t>проверить оплату мобильной связи оператора МТС</t>
+  </si>
+  <si>
+    <t>проверить оплату мобильной связи оператора Киевстар</t>
+  </si>
+  <si>
+    <t>ппроверить оплату мобильной связи оператора Life</t>
+  </si>
+  <si>
+    <t>проверить оплату мобильной связи заграничного оператора  (например V-Tell)</t>
+  </si>
+  <si>
+    <t>проверить оплату услуги холодного водоснабжение определенного населенного пункта (Кожуховка например)</t>
+  </si>
+  <si>
+    <t>проверить оплату услуги холодного водоснабжения столицы Украины</t>
+  </si>
+  <si>
+    <t>проверить оплату услуги горячего водоснабжение определенного населенного пункта (например Макаров)</t>
+  </si>
+  <si>
+    <t>проверить оплату услуги горячего водоснабжение столицы Украины</t>
+  </si>
+  <si>
+    <t>Проверить - если ввести реквизиты холодного водоснабжения в графе горячего, пропустит ли система платеж?</t>
+  </si>
+  <si>
+    <t>проверить оплату водоотведение любого населенного пункта Украины (например Мироновка)</t>
+  </si>
+  <si>
+    <t>проверить оплату электроснабжение глухого села (Горобьевка например)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">проверить оплату электроснабжение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">проверить оплату газоснабжение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">проверить оплату отопление </t>
+  </si>
+  <si>
+    <t>проверить оплату вывоза бытовых отходов</t>
+  </si>
+  <si>
+    <t>проверить оплату сразу всех услуг комунальных предприятий по определенному адресу? (например Телиги 17б,кв34)</t>
+  </si>
+  <si>
+    <t>проверить оплату стационарной телефонной связи</t>
+  </si>
+  <si>
+    <t>проверить оплату провайдера Воля</t>
+  </si>
+  <si>
+    <t>проверить оплату провайдера Ланет</t>
+  </si>
+  <si>
+    <t>проверить оплату провайдера Вега</t>
+  </si>
+  <si>
+    <t>проверить оплату провайдера Триолан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">проверить оплату  малоизвестного провайдера </t>
+  </si>
+  <si>
+    <t>проверить оплату телевизионного оператора Воля</t>
+  </si>
+  <si>
+    <t>проверить оплату любого телевизионного оператора</t>
+  </si>
+  <si>
+    <t>проверить оплату ОСАГО страховой ПЗУ</t>
+  </si>
+  <si>
+    <t>проверить оплату ОСАГО незарегистрированого автомобиля</t>
+  </si>
+  <si>
+    <t>проверить оплату ОСАГО нерастаможеного автомобиля</t>
+  </si>
+  <si>
+    <t>проверить оплату ОСАГО любой страховой компании</t>
+  </si>
+  <si>
+    <t>проверить оплату зеленой карты для выезда в Европу</t>
+  </si>
+  <si>
+    <t>проверить оплату зеленой карты для выезда в Россию, Молдову, Беларусь, Азербайджан</t>
+  </si>
+  <si>
+    <t>проверить оплату любой парковки города Киева</t>
+  </si>
+  <si>
+    <t>проверить оплату парковку находящуюся не в Украине</t>
+  </si>
+  <si>
+    <t>проверить оплату парковки любой парковки Украины</t>
+  </si>
+  <si>
+    <t>проверить пополнение Kyiv Smart Card - билета для проезда в общественном транспорте в Киеве</t>
+  </si>
+  <si>
+    <t>проверить оплату Kyiv Smart Card - билета для проезда в общественном транспорте в Киеве</t>
+  </si>
+  <si>
+    <t>проверить оплату штрафа за превышение скорости в городе Одессе</t>
+  </si>
+  <si>
+    <t>проверить оплату любого штрафа ГАИ Украины</t>
+  </si>
+  <si>
+    <t>проверить оплату штрафа за нарушение не на територии Украины</t>
+  </si>
+  <si>
+    <t>проверить покупку билета на самолет с Украины онлайн</t>
+  </si>
+  <si>
+    <t>проверить покупку билета на самолет в другой стране онлайн</t>
+  </si>
+  <si>
+    <t>проверить покупку билета ЖД в любой город Украины онлайн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">проверить покупку билета ЖД в любой город за пределами Украины онлайн </t>
+  </si>
+  <si>
+    <t>проверить покупку билета онлайн в Созополь(Болгария) на автобус</t>
+  </si>
+  <si>
+    <t>проверить покупку билета онлайн  в село Львовской области</t>
+  </si>
+  <si>
+    <t>проверить покупку билета  онлайн в любой город Украины</t>
+  </si>
+  <si>
+    <t>проверить оплату игры TownShip</t>
+  </si>
+  <si>
+    <t>проверить оплату билета в кино</t>
+  </si>
+  <si>
+    <t>проверить оплату билета в театр</t>
+  </si>
+  <si>
+    <t>проверить оплату любой игры онлайн</t>
+  </si>
+  <si>
+    <t>проверить оплату "Налог на прибыль предприятия"</t>
+  </si>
+  <si>
+    <t>проверить оплату кредит "Приватбанка" Украины</t>
+  </si>
+  <si>
+    <t>проверить оплату кредита зарубежного банка Bank Pekao</t>
+  </si>
+  <si>
+    <t>проверить оплату охрану дома</t>
+  </si>
+  <si>
+    <t>проверить оплату охрану школы</t>
+  </si>
+  <si>
+    <t>проверить оплату любой охранной фирмы (например "Берег")</t>
+  </si>
+  <si>
+    <t>проверить оплату туристического тура в Азию</t>
+  </si>
+  <si>
+    <t>проверить оплату туристического тура в Европу</t>
+  </si>
+  <si>
+    <t>проверить оплату туристического тура в Америку</t>
+  </si>
+  <si>
+    <t>проверить оплату счета за образование любого вуза Украины (например КНУ им.Т.Шевченка)</t>
+  </si>
+  <si>
+    <t>проверить оплату счета за образование зарубежного вуза (например University of Illinois at Chicago)</t>
+  </si>
+  <si>
+    <t>проверить оплату  службу переездов (например "Муравей")</t>
+  </si>
+  <si>
+    <t>проверить оплату  ремонта квартиры (например "Кабанчик")</t>
+  </si>
+  <si>
+    <t>проверить оплату других  бизнес-услуг</t>
+  </si>
+  <si>
+    <t>проверить оплату всех счетов автоматически</t>
+  </si>
+  <si>
+    <t xml:space="preserve">проверить  возмжность оплаты счетов автоматически через месяц </t>
+  </si>
+  <si>
+    <t>проверить , после оплаты возможность получить квитанцию</t>
+  </si>
+  <si>
+    <t>проверить возможность распечатать квитанции об оплате</t>
+  </si>
+  <si>
+    <t>1.Скорость загрузки сайта https://www.portmone.com.ua</t>
+  </si>
+  <si>
+    <t>в браузере ввести https://www.portmone.com.ua , проверить скорость загрузки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Удобство переключения языка </t>
+  </si>
+  <si>
+    <t>Проверить наличие на сайте Портмоне есть переключение языка (для переключения языка нужно пролистать всю страницу сайта (английский ,русский ,украинский)</t>
+  </si>
+  <si>
+    <t>проверить открывается https://www.portmone.com.ua/r3/uk/ в браузерах Яндекс Браузер, Google Chrome, Mozilla Firefox, Internet Explorer,Opera, Apple Safari, с мобильного устройсва.</t>
+  </si>
+  <si>
+    <t>3.Наличие адаптивной верстки</t>
+  </si>
+  <si>
+    <t>4. Скрытие ненужных полос скролла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">проверить не появляется ли горизонтальная полоса скролла </t>
+  </si>
+  <si>
+    <t>5. Наличие интуитивно понятных иконок</t>
+  </si>
+  <si>
+    <t>проверить  дополнены ли текстовые пункты иконками</t>
+  </si>
+  <si>
+    <t>6. Единообразие интерфейса</t>
+  </si>
+  <si>
+    <t>проверить структуру сайта – шапку, подвал, главное меню – одинаковы на всех страницах</t>
+  </si>
+  <si>
+    <t>7.Однозначность и понятность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">открыв  любую страницу сайта, понятно за 3 секунды, что это за сайт, какой тематики: благодаря слогану и изображениям в шапке, заголовку страницы. </t>
+  </si>
+  <si>
+    <t>8. Предсказуемое местонахождение ключевых элементов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">проверить все стандартные элементы находятся на привычных местах( логотип компании – слева вверху,контакты – справа вверху, строка поиска – вверху слева или вверху по центру.)
+</t>
+  </si>
+  <si>
+    <t>9.Удобство взаимодействия с лого сайта</t>
+  </si>
+  <si>
+    <t>проверить Логотип "portmone.com"кликабелен и ведет на главную страницу, а на самóй главной – не перезагружает страницу.</t>
+  </si>
+  <si>
+    <t>10.Карта сайта</t>
+  </si>
+  <si>
+    <t>проверить - на сайте есть ссылка на карту сайта, и она сквозная (оптимальное расположение – в футере)</t>
+  </si>
+  <si>
+    <t>11. Уникальный фавикон</t>
+  </si>
+  <si>
+    <t>проверить наличие у сайта фавикона. Благодаря запоминающемуся фавикону легко найти вкладку с  сайтом "portmone.com" среди множества открытых вкладок браузера.</t>
+  </si>
+  <si>
+    <t>12. Заметные CTA</t>
+  </si>
+  <si>
+    <t>проверить кнопки к действиям на странице – визуально заметны и очевидны: кнопки крупные и понятно подписаны, ссылки выделены.</t>
+  </si>
+  <si>
+    <t>13. Ясная терминология</t>
+  </si>
+  <si>
+    <t>проверить в  пунктах меню, кнопках и ссылках на услуги используются понятные термины и формулировки</t>
+  </si>
+  <si>
+    <t>14.Минимум трудностей для пользователя.</t>
+  </si>
+  <si>
+    <t>проверить portmone.com предлагает выполнять только действительно необходимые действия</t>
+  </si>
+  <si>
+    <t>16. Отсутствие лишней анимации</t>
+  </si>
+  <si>
+    <t>проверить Flash используется по минимуму или вовсе не используется</t>
+  </si>
+  <si>
+    <t>17.Оптимальный размер кликабельных элементов</t>
+  </si>
+  <si>
+    <t>проверить кнопки, ссылки, баннеры достаточно длинные и крупные, удобного размера.</t>
+  </si>
+  <si>
+    <t>18.Продуманное расположение блоков</t>
+  </si>
+  <si>
+    <t>проверить расположение блоков для услуг удобное в использовании</t>
+  </si>
+  <si>
+    <t>19.Поиск на сайте.</t>
+  </si>
+  <si>
+    <t>проверить работает ли строка поиска на сайте www.portmone.com.ua</t>
+  </si>
+  <si>
+    <t>20.Сквозное главное меню сайта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">проверить разделы контактов, каталога товаров, услуг  в главном меню сайта. </t>
+  </si>
+  <si>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>21.Онлайн-консультант (чат поддержки). Удобство расположения иконки онлайн-консультанта.</t>
+  </si>
+  <si>
+    <t>проверить иконка онлайн-консультанта располагается на заметном месте сайта, но не закрывает контент сайта ни на декстопе, ни на мобильных устройствах, не мешает взаимодействовать с сайтом.</t>
+  </si>
+  <si>
+    <t>22. Круглосуточный прием вопросов онлайн-консультанта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Написать вопрос в чат поддержки онлайн-консультанта можно как в рабочее время компании, так и в нерабочее. </t>
+  </si>
+  <si>
+    <t>проверить используются минимально или вовсе не используются яркие цвета, крупный цветной текст, анимация.</t>
+  </si>
+  <si>
+    <t>15. Умеренность дизайна</t>
   </si>
 </sst>
 </file>
@@ -737,7 +874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -750,6 +887,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -759,13 +905,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1084,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39F75E3-E674-4788-8677-652A79730C54}">
   <dimension ref="C1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="E81" sqref="C4:E81"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1099,11 +1248,11 @@
   <sheetData>
     <row r="1" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
@@ -1115,753 +1264,753 @@
       </c>
     </row>
     <row r="4" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="8"/>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C7" s="8"/>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C8" s="8"/>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C9" s="8"/>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="8"/>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="8"/>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C13" s="8"/>
+      <c r="D13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C15" s="8"/>
+      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C16" s="8"/>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C17" s="8"/>
+      <c r="D17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C18" s="8"/>
+      <c r="D18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C19" s="8"/>
+      <c r="D19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C20" s="8"/>
+      <c r="D20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="8"/>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="8"/>
+      <c r="D22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="8"/>
+      <c r="D23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="8"/>
+      <c r="D24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C25" s="8"/>
+      <c r="D25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="9"/>
-      <c r="D5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C7" s="9"/>
-      <c r="D7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C8" s="9"/>
-      <c r="D8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C9" s="9"/>
-      <c r="D9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="9"/>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="9"/>
-      <c r="D12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C13" s="9"/>
-      <c r="D13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="E25" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C15" s="9"/>
-      <c r="D15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="D27" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C16" s="9"/>
-      <c r="D16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C17" s="9"/>
-      <c r="D17" s="10" t="s">
+      <c r="E27" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="8"/>
+      <c r="D28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E28" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="8"/>
+      <c r="D29" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
+      <c r="E29" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="8"/>
+      <c r="D30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E30" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="8"/>
+      <c r="D31" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
+      <c r="E31" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="D32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="8"/>
+      <c r="D33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="8"/>
+      <c r="D35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="8"/>
+      <c r="D36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C37" s="8"/>
+      <c r="D37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C39" s="8"/>
+      <c r="D39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="9"/>
-      <c r="D20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="9"/>
-      <c r="D21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="9"/>
-      <c r="D22" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="9"/>
-      <c r="D23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="9"/>
-      <c r="D24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C25" s="9"/>
-      <c r="D25" s="10" t="s">
+      <c r="D40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E40" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="8"/>
+      <c r="D41" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="11" t="s">
+      <c r="E41" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C42" s="8"/>
+      <c r="D42" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="E42" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C43" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="D43" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="9" t="s">
+      <c r="E43" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C44" s="8"/>
+      <c r="D44" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E44" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C45" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="D45" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C46" s="8"/>
+      <c r="D46" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="9"/>
-      <c r="D28" s="10" t="s">
+      <c r="E46" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C47" s="8"/>
+      <c r="D47" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C48" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C49" s="8"/>
+      <c r="D49" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="9"/>
-      <c r="D29" s="10" t="s">
+      <c r="E49" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C50" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="9"/>
-      <c r="D30" s="10" t="s">
+      <c r="D50" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="9"/>
-      <c r="D31" s="10" t="s">
+      <c r="E50" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C51" s="8"/>
+      <c r="D51" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="9" t="s">
+      <c r="E51" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C52" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D52" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E52" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C53" s="8"/>
+      <c r="D53" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="9"/>
-      <c r="D33" s="10" t="s">
+      <c r="E53" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C54" s="8"/>
+      <c r="D54" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E54" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C55" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="9" t="s">
+      <c r="D55" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="E55" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C56" s="8"/>
+      <c r="D56" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E56" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C57" s="8"/>
+      <c r="D57" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C35" s="9"/>
-      <c r="D35" s="10" t="s">
+      <c r="E57" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C58" s="8"/>
+      <c r="D58" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C59" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C60" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C36" s="9"/>
-      <c r="D36" s="10" t="s">
+      <c r="D60" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C37" s="9"/>
-      <c r="D37" s="10" t="s">
+      <c r="E60" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C61" s="8"/>
+      <c r="D61" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C38" s="9" t="s">
+      <c r="E61" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C62" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D62" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E62" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C63" s="8"/>
+      <c r="D63" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C39" s="9"/>
-      <c r="D39" s="10" t="s">
+      <c r="E63" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C64" s="8"/>
+      <c r="D64" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E64" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C65" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C40" s="9" t="s">
+      <c r="D65" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="E65" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C66" s="8"/>
+      <c r="D66" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E66" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C67" s="8"/>
+      <c r="D67" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C41" s="9"/>
-      <c r="D41" s="10" t="s">
+      <c r="E67" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C68" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="D68" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C42" s="9"/>
-      <c r="D42" s="10" t="s">
+      <c r="E68" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C69" s="8"/>
+      <c r="D69" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E69" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C70" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="43" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C43" s="9" t="s">
+      <c r="D70" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="E70" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C71" s="8"/>
+      <c r="D71" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E71" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C72" s="8"/>
+      <c r="D72" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="44" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C44" s="9"/>
-      <c r="D44" s="10" t="s">
+      <c r="E72" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C73" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="D73" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="45" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C45" s="9" t="s">
+      <c r="E73" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C74" s="8"/>
+      <c r="D74" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="E74" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C75" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="D75" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C46" s="9"/>
-      <c r="D46" s="10" t="s">
+      <c r="E75" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C76" s="8"/>
+      <c r="D76" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E76" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C47" s="9"/>
-      <c r="D47" s="10" t="s">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C77" s="8"/>
+      <c r="D77" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E77" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C78" s="8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C48" s="9" t="s">
+      <c r="D78" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="E78" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="11" t="s">
+    </row>
+    <row r="79" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C79" s="8"/>
+      <c r="D79" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C80" s="8"/>
+      <c r="D80" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C49" s="9"/>
-      <c r="D49" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C50" s="9" t="s">
+      <c r="E80" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="10" t="s">
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C81" s="8"/>
+      <c r="D81" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C51" s="9"/>
-      <c r="D51" s="10" t="s">
+      <c r="E81" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C52" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C53" s="9"/>
-      <c r="D53" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C54" s="9"/>
-      <c r="D54" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C55" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C56" s="9"/>
-      <c r="D56" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C57" s="9"/>
-      <c r="D57" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C58" s="9"/>
-      <c r="D58" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C59" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C60" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C61" s="9"/>
-      <c r="D61" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C62" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C63" s="9"/>
-      <c r="D63" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C64" s="9"/>
-      <c r="D64" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C65" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C66" s="9"/>
-      <c r="D66" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C67" s="9"/>
-      <c r="D67" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C68" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C69" s="9"/>
-      <c r="D69" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C70" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C71" s="9"/>
-      <c r="D71" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C72" s="9"/>
-      <c r="D72" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C73" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C74" s="9"/>
-      <c r="D74" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C75" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C76" s="9"/>
-      <c r="D76" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C77" s="9"/>
-      <c r="D77" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C78" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C79" s="9"/>
-      <c r="D79" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C80" s="9"/>
-      <c r="D80" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C81" s="9"/>
-      <c r="D81" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.3">
@@ -1869,6 +2018,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C58"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C75:C77"/>
     <mergeCell ref="C78:C81"/>
@@ -1877,21 +2041,288 @@
     <mergeCell ref="C65:C67"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="C27:C31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB3943A-14A4-412A-8FF5-02CACE8119FF}">
+  <dimension ref="B3:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D26" sqref="B3:D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B19" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B25" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B26" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
